--- a/Apache Commons Collection/Correlation analysis/correlation between metric 1 and 4 - v4.4.xlsx
+++ b/Apache Commons Collection/Correlation analysis/correlation between metric 1 and 4 - v4.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhannitasarcar/Documents/GitHub/SOEN6611/SOEN6611_TeamS/Apache Commons Collection/Correlation analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF9C098-FBBC-0240-A489-684FB2310EF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7682AD9E-32A0-6349-9503-55CB1B194C46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="960" windowWidth="26720" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2403,7 +2403,7 @@
   <dimension ref="A1:L491"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
-      <selection activeCell="L491" sqref="L491"/>
+      <selection activeCell="L492" sqref="L492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22468,8 +22468,8 @@
         <v>509</v>
       </c>
       <c r="L491">
-        <f>1-((6*L490)/(489^3-489))</f>
-        <v>-0.25854413524436226</v>
+        <f>1-((6*L490)/(488^3-488))</f>
+        <v>-0.26629697385983064</v>
       </c>
     </row>
   </sheetData>
